--- a/biology/Zoologie/Barbaracurus_somalicus/Barbaracurus_somalicus.xlsx
+++ b/biology/Zoologie/Barbaracurus_somalicus/Barbaracurus_somalicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbaracurus somalicus est une espèce de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Somaliland en Somalie[1]. Elle se rencontre vers Berbera et Borama[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Somaliland en Somalie. Elle se rencontre vers Berbera et Borama.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 47 mm[3].
-La femelle décrite par Kovařík en 2000 mesure 48,2 mm[4].
-Le mâle décrit par Kovařík, Lowe et Šťáhlavský en 2018 mesure 35,50 mm et la femelle 40,65 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 47 mm.
+La femelle décrite par Kovařík en 2000 mesure 48,2 mm.
+Le mâle décrit par Kovařík, Lowe et Šťáhlavský en 2018 mesure 35,50 mm et la femelle 40,65 mm.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Babycurus somalicus par Hirst en 1907. Elle est placée dans le genre Barbaracurus par Kovařík, Lowe et Šťáhlavský en 2018[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Babycurus somalicus par Hirst en 1907. Elle est placée dans le genre Barbaracurus par Kovařík, Lowe et Šťáhlavský en 2018.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Somalie.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hirst, 1907 : « Notes on scorpions, with descriptions of two new species. » Annals and Magazine of Natural History, sér. 7, vol. 19, p. 208-211 (texte intégral).</t>
         </is>
